--- a/src/assets/img/baptiste AUDEON.xlsx
+++ b/src/assets/img/baptiste AUDEON.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bapto\OneDrive\Bureau\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05F51E0E-7A7E-4B92-8748-F20CF27FA589}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{895D3518-9A92-4002-977E-FC2D0FE1F496}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-19310" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="72">
   <si>
     <t>BTS SERVICES INFORMATIQUES AUX ORGANISATIONS</t>
   </si>
@@ -289,18 +289,6 @@
     <t>Automatisation de  création de base MS SQL et de VM avec Powershel</t>
   </si>
   <si>
-    <t>Compte Rendu</t>
-  </si>
-  <si>
-    <t>Compte rendu : Phishing</t>
-  </si>
-  <si>
-    <t>Travaux Pratiques</t>
-  </si>
-  <si>
-    <t>TP : GestSup</t>
-  </si>
-  <si>
     <t>Utilisation Du Framework vue.js 3</t>
   </si>
   <si>
@@ -310,16 +298,7 @@
     <t xml:space="preserve">Création environement developement / production </t>
   </si>
   <si>
-    <t>Compte rendu : Firewall</t>
-  </si>
-  <si>
-    <t>Compte rendu : Sténographie</t>
-  </si>
-  <si>
-    <t>TP : Protocole FTP</t>
-  </si>
-  <si>
-    <t>Compte rendu : Trojan</t>
+    <t>N° candidat :  02345603363</t>
   </si>
   <si>
     <r>
@@ -340,18 +319,15 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>https://baptisteaudeon.com/bts</t>
+      <t>https://baptisteaudeon.com</t>
     </r>
-  </si>
-  <si>
-    <t>N° candidat :  02345603363</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -502,34 +478,6 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="20"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="8"/>
-      <color theme="1"/>
-      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1172,7 +1120,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1300,24 +1248,29 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1353,34 +1306,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1601,8 +1526,8 @@
   </sheetPr>
   <dimension ref="A1:AB1012"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1614,18 +1539,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="73" t="s">
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="74"/>
+      <c r="H1" s="46"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
@@ -1648,16 +1573,16 @@
       <c r="AB1" s="1"/>
     </row>
     <row r="2" spans="1:28" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="77"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="49"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -1680,18 +1605,18 @@
       <c r="AB2" s="1"/>
     </row>
     <row r="3" spans="1:28" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="78" t="s">
+      <c r="A3" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="79"/>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="80"/>
-      <c r="F3" s="81" t="s">
-        <v>79</v>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="53" t="s">
+        <v>70</v>
       </c>
-      <c r="G3" s="82"/>
-      <c r="H3" s="83"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="55"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="2"/>
@@ -1714,13 +1639,13 @@
       <c r="AB3" s="1"/>
     </row>
     <row r="4" spans="1:28" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="52" t="s">
+      <c r="A4" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="50"/>
-      <c r="C4" s="50"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="53"/>
+      <c r="B4" s="57"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="60"/>
       <c r="F4" s="3" t="s">
         <v>5</v>
       </c>
@@ -1752,16 +1677,16 @@
       <c r="AB4" s="1"/>
     </row>
     <row r="5" spans="1:28" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="54" t="s">
-        <v>78</v>
+      <c r="A5" s="61" t="s">
+        <v>71</v>
       </c>
-      <c r="B5" s="55"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="56"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="62"/>
+      <c r="H5" s="63"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
@@ -1784,10 +1709,10 @@
       <c r="AB5" s="1"/>
     </row>
     <row r="6" spans="1:28" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="61" t="s">
+      <c r="A6" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="63" t="s">
+      <c r="B6" s="70" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="5" t="s">
@@ -1830,8 +1755,8 @@
       <c r="AB6" s="1"/>
     </row>
     <row r="7" spans="1:28" ht="324.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="62"/>
-      <c r="B7" s="64"/>
+      <c r="A7" s="69"/>
+      <c r="B7" s="71"/>
       <c r="C7" s="30" t="s">
         <v>16</v>
       </c>
@@ -1872,16 +1797,16 @@
       <c r="AB7" s="1"/>
     </row>
     <row r="8" spans="1:28" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="57" t="s">
+      <c r="A8" s="64" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="58"/>
-      <c r="C8" s="58"/>
-      <c r="D8" s="58"/>
-      <c r="E8" s="58"/>
-      <c r="F8" s="58"/>
-      <c r="G8" s="58"/>
-      <c r="H8" s="59"/>
+      <c r="B8" s="65"/>
+      <c r="C8" s="65"/>
+      <c r="D8" s="65"/>
+      <c r="E8" s="65"/>
+      <c r="F8" s="65"/>
+      <c r="G8" s="65"/>
+      <c r="H8" s="66"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
@@ -1904,16 +1829,16 @@
       <c r="AB8" s="1"/>
     </row>
     <row r="9" spans="1:28" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="68" t="s">
-        <v>67</v>
+      <c r="A9" s="72" t="s">
+        <v>24</v>
       </c>
-      <c r="B9" s="69"/>
-      <c r="C9" s="69"/>
-      <c r="D9" s="69"/>
-      <c r="E9" s="69"/>
-      <c r="F9" s="69"/>
-      <c r="G9" s="69"/>
-      <c r="H9" s="70"/>
+      <c r="B9" s="73"/>
+      <c r="C9" s="73"/>
+      <c r="D9" s="73"/>
+      <c r="E9" s="73"/>
+      <c r="F9" s="73"/>
+      <c r="G9" s="73"/>
+      <c r="H9" s="74"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
@@ -1936,20 +1861,22 @@
       <c r="AB9" s="1"/>
     </row>
     <row r="10" spans="1:28" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="46" t="s">
-        <v>74</v>
+      <c r="A10" s="28" t="s">
+        <v>25</v>
       </c>
-      <c r="B10" s="43">
-        <v>2022</v>
+      <c r="B10" s="34">
+        <v>45383</v>
       </c>
-      <c r="C10" s="44" t="s">
+      <c r="C10" s="35"/>
+      <c r="D10" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="45"/>
-      <c r="E10" s="45"/>
-      <c r="F10" s="45"/>
-      <c r="G10" s="45"/>
-      <c r="H10" s="47" t="s">
+      <c r="E10" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" s="35"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="41" t="s">
         <v>23</v>
       </c>
       <c r="I10" s="1"/>
@@ -1974,20 +1901,24 @@
       <c r="AB10" s="1"/>
     </row>
     <row r="11" spans="1:28" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="46" t="s">
-        <v>77</v>
+      <c r="A11" s="17" t="s">
+        <v>38</v>
       </c>
-      <c r="B11" s="43">
-        <v>2022</v>
+      <c r="B11" s="9">
+        <v>45383</v>
       </c>
-      <c r="C11" s="44" t="s">
+      <c r="C11" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="45"/>
-      <c r="E11" s="45"/>
-      <c r="F11" s="45"/>
-      <c r="G11" s="45"/>
-      <c r="H11" s="47" t="s">
+      <c r="D11" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="12"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="42" t="s">
         <v>23</v>
       </c>
       <c r="I11" s="1"/>
@@ -2012,20 +1943,22 @@
       <c r="AB11" s="1"/>
     </row>
     <row r="12" spans="1:28" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="46" t="s">
-        <v>68</v>
+      <c r="A12" s="20" t="s">
+        <v>39</v>
       </c>
-      <c r="B12" s="43">
-        <v>2022</v>
+      <c r="B12" s="9">
+        <v>45383</v>
       </c>
-      <c r="C12" s="44" t="s">
+      <c r="C12" s="12"/>
+      <c r="D12" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="45"/>
-      <c r="E12" s="45"/>
-      <c r="F12" s="45"/>
-      <c r="G12" s="45"/>
-      <c r="H12" s="47" t="s">
+      <c r="E12" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="22" t="s">
         <v>23</v>
       </c>
       <c r="I12" s="1"/>
@@ -2050,20 +1983,22 @@
       <c r="AB12" s="1"/>
     </row>
     <row r="13" spans="1:28" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="46" t="s">
-        <v>75</v>
+      <c r="A13" s="20" t="s">
+        <v>57</v>
       </c>
-      <c r="B13" s="43">
-        <v>2022</v>
+      <c r="B13" s="9">
+        <v>45383</v>
       </c>
-      <c r="C13" s="44" t="s">
+      <c r="C13" s="6"/>
+      <c r="D13" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="45"/>
-      <c r="E13" s="45"/>
-      <c r="F13" s="45"/>
-      <c r="G13" s="45"/>
-      <c r="H13" s="47" t="s">
+      <c r="E13" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="22" t="s">
         <v>23</v>
       </c>
       <c r="I13" s="1"/>
@@ -2088,16 +2023,24 @@
       <c r="AB13" s="1"/>
     </row>
     <row r="14" spans="1:28" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="68" t="s">
-        <v>69</v>
+      <c r="A14" s="23" t="s">
+        <v>26</v>
       </c>
-      <c r="B14" s="69"/>
-      <c r="C14" s="69"/>
-      <c r="D14" s="69"/>
-      <c r="E14" s="69"/>
-      <c r="F14" s="69"/>
-      <c r="G14" s="69"/>
-      <c r="H14" s="70"/>
+      <c r="B14" s="9">
+        <v>45383</v>
+      </c>
+      <c r="C14" s="12"/>
+      <c r="D14" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" s="12"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="42" t="s">
+        <v>23</v>
+      </c>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
@@ -2120,20 +2063,24 @@
       <c r="AB14" s="1"/>
     </row>
     <row r="15" spans="1:28" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="46" t="s">
-        <v>76</v>
+      <c r="A15" s="20" t="s">
+        <v>41</v>
       </c>
-      <c r="B15" s="43">
-        <v>2022</v>
+      <c r="B15" s="9">
+        <v>45383</v>
       </c>
-      <c r="C15" s="44" t="s">
+      <c r="C15" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="45"/>
-      <c r="E15" s="45"/>
-      <c r="F15" s="45"/>
-      <c r="G15" s="45"/>
-      <c r="H15" s="48"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="G15" s="6"/>
+      <c r="H15" s="24" t="s">
+        <v>23</v>
+      </c>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
@@ -2156,20 +2103,24 @@
       <c r="AB15" s="1"/>
     </row>
     <row r="16" spans="1:28" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="46" t="s">
-        <v>70</v>
+      <c r="A16" s="20" t="s">
+        <v>62</v>
       </c>
-      <c r="B16" s="43">
-        <v>2022</v>
+      <c r="B16" s="9">
+        <v>45383</v>
       </c>
-      <c r="C16" s="44" t="s">
+      <c r="C16" s="6"/>
+      <c r="D16" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="45"/>
-      <c r="E16" s="45"/>
-      <c r="F16" s="45"/>
-      <c r="G16" s="45"/>
-      <c r="H16" s="48"/>
+      <c r="E16" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F16" s="12"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="24" t="s">
+        <v>23</v>
+      </c>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
@@ -2192,16 +2143,24 @@
       <c r="AB16" s="1"/>
     </row>
     <row r="17" spans="1:28" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="65" t="s">
-        <v>24</v>
+      <c r="A17" s="20" t="s">
+        <v>63</v>
       </c>
-      <c r="B17" s="66"/>
-      <c r="C17" s="66"/>
-      <c r="D17" s="66"/>
-      <c r="E17" s="66"/>
-      <c r="F17" s="66"/>
-      <c r="G17" s="66"/>
-      <c r="H17" s="67"/>
+      <c r="B17" s="9">
+        <v>45383</v>
+      </c>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F17" s="12"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="24" t="s">
+        <v>23</v>
+      </c>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
@@ -2224,24 +2183,16 @@
       <c r="AB17" s="1"/>
     </row>
     <row r="18" spans="1:28" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="28" t="s">
-        <v>25</v>
+      <c r="A18" s="56" t="s">
+        <v>27</v>
       </c>
-      <c r="B18" s="34">
-        <v>45383</v>
-      </c>
-      <c r="C18" s="35"/>
-      <c r="D18" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="E18" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="F18" s="35"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="41" t="s">
-        <v>23</v>
-      </c>
+      <c r="B18" s="57"/>
+      <c r="C18" s="57"/>
+      <c r="D18" s="57"/>
+      <c r="E18" s="57"/>
+      <c r="F18" s="57"/>
+      <c r="G18" s="57"/>
+      <c r="H18" s="58"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
@@ -2264,15 +2215,13 @@
       <c r="AB18" s="1"/>
     </row>
     <row r="19" spans="1:28" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="17" t="s">
-        <v>38</v>
+      <c r="A19" s="25" t="s">
+        <v>59</v>
       </c>
       <c r="B19" s="9">
-        <v>45383</v>
+        <v>45280</v>
       </c>
-      <c r="C19" s="12" t="s">
-        <v>23</v>
-      </c>
+      <c r="C19" s="12"/>
       <c r="D19" s="10" t="s">
         <v>23</v>
       </c>
@@ -2281,7 +2230,7 @@
       </c>
       <c r="F19" s="12"/>
       <c r="G19" s="10"/>
-      <c r="H19" s="42" t="s">
+      <c r="H19" s="24" t="s">
         <v>23</v>
       </c>
       <c r="I19" s="1"/>
@@ -2306,22 +2255,22 @@
       <c r="AB19" s="1"/>
     </row>
     <row r="20" spans="1:28" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="20" t="s">
-        <v>39</v>
+      <c r="A20" s="25" t="s">
+        <v>58</v>
       </c>
       <c r="B20" s="9">
-        <v>45383</v>
+        <v>45280</v>
       </c>
       <c r="C20" s="12"/>
-      <c r="D20" s="12" t="s">
+      <c r="D20" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="E20" s="13" t="s">
+      <c r="E20" s="10" t="s">
         <v>23</v>
       </c>
       <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="22" t="s">
+      <c r="G20" s="10"/>
+      <c r="H20" s="24" t="s">
         <v>23</v>
       </c>
       <c r="I20" s="1"/>
@@ -2346,22 +2295,22 @@
       <c r="AB20" s="1"/>
     </row>
     <row r="21" spans="1:28" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="20" t="s">
-        <v>57</v>
+      <c r="A21" s="17" t="s">
+        <v>56</v>
       </c>
       <c r="B21" s="9">
-        <v>45383</v>
+        <v>45280</v>
       </c>
-      <c r="C21" s="6"/>
-      <c r="D21" s="12" t="s">
+      <c r="C21" s="12"/>
+      <c r="D21" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="E21" s="13" t="s">
+      <c r="E21" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="22" t="s">
+      <c r="F21" s="12"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="42" t="s">
         <v>23</v>
       </c>
       <c r="I21" s="1"/>
@@ -2385,25 +2334,23 @@
       <c r="AA21" s="1"/>
       <c r="AB21" s="1"/>
     </row>
-    <row r="22" spans="1:28" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="23" t="s">
-        <v>26</v>
+    <row r="22" spans="1:28" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="25" t="s">
+        <v>41</v>
       </c>
       <c r="B22" s="9">
-        <v>45383</v>
+        <v>45280</v>
       </c>
-      <c r="C22" s="12"/>
-      <c r="D22" s="10" t="s">
+      <c r="C22" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="E22" s="10" t="s">
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F22" s="12"/>
       <c r="G22" s="10"/>
-      <c r="H22" s="42" t="s">
-        <v>23</v>
-      </c>
+      <c r="H22" s="19"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
@@ -2426,24 +2373,16 @@
       <c r="AB22" s="1"/>
     </row>
     <row r="23" spans="1:28" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="20" t="s">
-        <v>41</v>
+      <c r="A23" s="64" t="s">
+        <v>28</v>
       </c>
-      <c r="B23" s="9">
-        <v>45383</v>
-      </c>
-      <c r="C23" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="G23" s="6"/>
-      <c r="H23" s="24" t="s">
-        <v>23</v>
-      </c>
+      <c r="B23" s="65"/>
+      <c r="C23" s="65"/>
+      <c r="D23" s="65"/>
+      <c r="E23" s="65"/>
+      <c r="F23" s="65"/>
+      <c r="G23" s="65"/>
+      <c r="H23" s="66"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
@@ -2466,24 +2405,16 @@
       <c r="AB23" s="1"/>
     </row>
     <row r="24" spans="1:28" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="20" t="s">
-        <v>62</v>
+      <c r="A24" s="67" t="s">
+        <v>66</v>
       </c>
-      <c r="B24" s="9">
-        <v>45383</v>
-      </c>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F24" s="12"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="24" t="s">
-        <v>23</v>
-      </c>
+      <c r="B24" s="57"/>
+      <c r="C24" s="57"/>
+      <c r="D24" s="57"/>
+      <c r="E24" s="57"/>
+      <c r="F24" s="57"/>
+      <c r="G24" s="57"/>
+      <c r="H24" s="58"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
@@ -2506,24 +2437,26 @@
       <c r="AB24" s="1"/>
     </row>
     <row r="25" spans="1:28" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="20" t="s">
-        <v>63</v>
+      <c r="A25" s="25" t="s">
+        <v>64</v>
       </c>
       <c r="B25" s="9">
-        <v>45383</v>
+        <v>45098</v>
       </c>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6" t="s">
+      <c r="C25" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="E25" s="6" t="s">
+      <c r="D25" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F25" s="12"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="24" t="s">
+      <c r="E25" s="10"/>
+      <c r="F25" s="6" t="s">
         <v>23</v>
       </c>
+      <c r="G25" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="H25" s="18"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
@@ -2546,16 +2479,22 @@
       <c r="AB25" s="1"/>
     </row>
     <row r="26" spans="1:28" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="49" t="s">
-        <v>27</v>
+      <c r="A26" s="25" t="s">
+        <v>65</v>
       </c>
-      <c r="B26" s="50"/>
-      <c r="C26" s="50"/>
-      <c r="D26" s="50"/>
-      <c r="E26" s="50"/>
-      <c r="F26" s="50"/>
-      <c r="G26" s="50"/>
-      <c r="H26" s="51"/>
+      <c r="B26" s="9">
+        <v>45098</v>
+      </c>
+      <c r="C26" s="12"/>
+      <c r="D26" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E26" s="10"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="H26" s="18"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
@@ -2579,23 +2518,21 @@
     </row>
     <row r="27" spans="1:28" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="25" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="B27" s="9">
-        <v>45280</v>
+        <v>45098</v>
       </c>
       <c r="C27" s="12"/>
       <c r="D27" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="E27" s="10" t="s">
+      <c r="E27" s="10"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="F27" s="12"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="24" t="s">
-        <v>23</v>
-      </c>
+      <c r="H27" s="18"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
@@ -2619,23 +2556,21 @@
     </row>
     <row r="28" spans="1:28" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="25" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="B28" s="9">
-        <v>45280</v>
+        <v>45098</v>
       </c>
       <c r="C28" s="12"/>
       <c r="D28" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="E28" s="10" t="s">
+      <c r="E28" s="10"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="F28" s="12"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="24" t="s">
-        <v>23</v>
-      </c>
+      <c r="H28" s="19"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
@@ -2658,24 +2593,22 @@
       <c r="AB28" s="1"/>
     </row>
     <row r="29" spans="1:28" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="17" t="s">
-        <v>56</v>
+      <c r="A29" s="25" t="s">
+        <v>50</v>
       </c>
       <c r="B29" s="9">
-        <v>45280</v>
+        <v>45098</v>
       </c>
       <c r="C29" s="12"/>
       <c r="D29" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="E29" s="10" t="s">
+      <c r="E29" s="10"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="F29" s="12"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="42" t="s">
-        <v>23</v>
-      </c>
+      <c r="H29" s="19"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
@@ -2697,22 +2630,22 @@
       <c r="AA29" s="1"/>
       <c r="AB29" s="1"/>
     </row>
-    <row r="30" spans="1:28" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:28" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="25" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B30" s="9">
-        <v>45280</v>
+        <v>45098</v>
       </c>
-      <c r="C30" s="12" t="s">
+      <c r="C30" s="12"/>
+      <c r="D30" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D30" s="10"/>
       <c r="E30" s="10"/>
-      <c r="F30" s="6" t="s">
+      <c r="F30" s="12"/>
+      <c r="G30" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="G30" s="10"/>
       <c r="H30" s="19"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
@@ -2736,16 +2669,22 @@
       <c r="AB30" s="1"/>
     </row>
     <row r="31" spans="1:28" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="57" t="s">
-        <v>28</v>
+      <c r="A31" s="25" t="s">
+        <v>44</v>
       </c>
-      <c r="B31" s="58"/>
-      <c r="C31" s="58"/>
-      <c r="D31" s="58"/>
-      <c r="E31" s="58"/>
-      <c r="F31" s="58"/>
-      <c r="G31" s="58"/>
-      <c r="H31" s="59"/>
+      <c r="B31" s="9">
+        <v>45098</v>
+      </c>
+      <c r="C31" s="12"/>
+      <c r="D31" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E31" s="10"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="H31" s="19"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
@@ -2767,17 +2706,23 @@
       <c r="AA31" s="1"/>
       <c r="AB31" s="1"/>
     </row>
-    <row r="32" spans="1:28" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="60" t="s">
-        <v>66</v>
+    <row r="32" spans="1:28" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="25" t="s">
+        <v>41</v>
       </c>
-      <c r="B32" s="50"/>
-      <c r="C32" s="50"/>
-      <c r="D32" s="50"/>
-      <c r="E32" s="50"/>
-      <c r="F32" s="50"/>
-      <c r="G32" s="50"/>
-      <c r="H32" s="51"/>
+      <c r="B32" s="9">
+        <v>45098</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G32" s="10"/>
+      <c r="H32" s="19"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
@@ -2800,26 +2745,16 @@
       <c r="AB32" s="1"/>
     </row>
     <row r="33" spans="1:28" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="25" t="s">
-        <v>64</v>
+      <c r="A33" s="64" t="s">
+        <v>29</v>
       </c>
-      <c r="B33" s="9">
-        <v>45098</v>
-      </c>
-      <c r="C33" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D33" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="E33" s="10"/>
-      <c r="F33" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G33" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="H33" s="18"/>
+      <c r="B33" s="65"/>
+      <c r="C33" s="65"/>
+      <c r="D33" s="65"/>
+      <c r="E33" s="65"/>
+      <c r="F33" s="65"/>
+      <c r="G33" s="65"/>
+      <c r="H33" s="66"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
@@ -2842,22 +2777,16 @@
       <c r="AB33" s="1"/>
     </row>
     <row r="34" spans="1:28" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="25" t="s">
-        <v>65</v>
+      <c r="A34" s="56" t="s">
+        <v>40</v>
       </c>
-      <c r="B34" s="9">
-        <v>45098</v>
-      </c>
-      <c r="C34" s="12"/>
-      <c r="D34" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="E34" s="10"/>
-      <c r="F34" s="12"/>
-      <c r="G34" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="H34" s="18"/>
+      <c r="B34" s="57"/>
+      <c r="C34" s="57"/>
+      <c r="D34" s="57"/>
+      <c r="E34" s="57"/>
+      <c r="F34" s="57"/>
+      <c r="G34" s="57"/>
+      <c r="H34" s="58"/>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
@@ -2880,18 +2809,18 @@
       <c r="AB34" s="1"/>
     </row>
     <row r="35" spans="1:28" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="25" t="s">
-        <v>42</v>
+      <c r="A35" s="17" t="s">
+        <v>46</v>
       </c>
-      <c r="B35" s="9">
-        <v>45098</v>
+      <c r="B35" s="14">
+        <v>45345</v>
       </c>
       <c r="C35" s="12"/>
       <c r="D35" s="10" t="s">
         <v>23</v>
       </c>
       <c r="E35" s="10"/>
-      <c r="F35" s="12"/>
+      <c r="F35" s="6"/>
       <c r="G35" s="31" t="s">
         <v>23</v>
       </c>
@@ -2918,18 +2847,18 @@
       <c r="AB35" s="1"/>
     </row>
     <row r="36" spans="1:28" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="25" t="s">
-        <v>45</v>
+      <c r="A36" s="17" t="s">
+        <v>51</v>
       </c>
       <c r="B36" s="9">
-        <v>45098</v>
+        <v>45345</v>
       </c>
       <c r="C36" s="12"/>
       <c r="D36" s="10" t="s">
         <v>23</v>
       </c>
       <c r="E36" s="10"/>
-      <c r="F36" s="12"/>
+      <c r="F36" s="6"/>
       <c r="G36" s="31" t="s">
         <v>23</v>
       </c>
@@ -2956,18 +2885,18 @@
       <c r="AB36" s="1"/>
     </row>
     <row r="37" spans="1:28" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="25" t="s">
-        <v>50</v>
+      <c r="A37" s="17" t="s">
+        <v>48</v>
       </c>
       <c r="B37" s="9">
-        <v>45098</v>
+        <v>45345</v>
       </c>
       <c r="C37" s="12"/>
       <c r="D37" s="10" t="s">
         <v>23</v>
       </c>
       <c r="E37" s="10"/>
-      <c r="F37" s="12"/>
+      <c r="F37" s="6"/>
       <c r="G37" s="31" t="s">
         <v>23</v>
       </c>
@@ -2994,19 +2923,19 @@
       <c r="AB37" s="1"/>
     </row>
     <row r="38" spans="1:28" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="25" t="s">
-        <v>43</v>
+      <c r="A38" s="17" t="s">
+        <v>30</v>
       </c>
       <c r="B38" s="9">
-        <v>45098</v>
+        <v>45345</v>
       </c>
       <c r="C38" s="12"/>
       <c r="D38" s="10" t="s">
         <v>23</v>
       </c>
       <c r="E38" s="10"/>
-      <c r="F38" s="12"/>
-      <c r="G38" s="31" t="s">
+      <c r="F38" s="6"/>
+      <c r="G38" s="10" t="s">
         <v>23</v>
       </c>
       <c r="H38" s="19"/>
@@ -3032,18 +2961,18 @@
       <c r="AB38" s="1"/>
     </row>
     <row r="39" spans="1:28" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="25" t="s">
-        <v>44</v>
+      <c r="A39" s="17" t="s">
+        <v>47</v>
       </c>
       <c r="B39" s="9">
-        <v>45098</v>
+        <v>45345</v>
       </c>
       <c r="C39" s="12"/>
-      <c r="D39" s="10" t="s">
+      <c r="D39" s="31" t="s">
         <v>23</v>
       </c>
       <c r="E39" s="10"/>
-      <c r="F39" s="12"/>
+      <c r="F39" s="6"/>
       <c r="G39" s="31" t="s">
         <v>23</v>
       </c>
@@ -3069,22 +2998,22 @@
       <c r="AA39" s="1"/>
       <c r="AB39" s="1"/>
     </row>
-    <row r="40" spans="1:28" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="25" t="s">
-        <v>41</v>
+    <row r="40" spans="1:28" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="17" t="s">
+        <v>49</v>
       </c>
       <c r="B40" s="9">
-        <v>45098</v>
+        <v>45345</v>
       </c>
-      <c r="C40" s="12" t="s">
+      <c r="C40" s="12"/>
+      <c r="D40" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="D40" s="10"/>
       <c r="E40" s="10"/>
-      <c r="F40" s="6" t="s">
+      <c r="F40" s="6"/>
+      <c r="G40" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="G40" s="10"/>
       <c r="H40" s="19"/>
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
@@ -3108,16 +3037,24 @@
       <c r="AB40" s="1"/>
     </row>
     <row r="41" spans="1:28" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="57" t="s">
-        <v>29</v>
+      <c r="A41" s="17" t="s">
+        <v>68</v>
       </c>
-      <c r="B41" s="58"/>
-      <c r="C41" s="58"/>
-      <c r="D41" s="58"/>
-      <c r="E41" s="58"/>
-      <c r="F41" s="58"/>
-      <c r="G41" s="58"/>
-      <c r="H41" s="59"/>
+      <c r="B41" s="9">
+        <v>45345</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D41" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="E41" s="10"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="H41" s="19"/>
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
@@ -3140,16 +3077,24 @@
       <c r="AB41" s="1"/>
     </row>
     <row r="42" spans="1:28" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="49" t="s">
-        <v>40</v>
+      <c r="A42" s="17" t="s">
+        <v>61</v>
       </c>
-      <c r="B42" s="50"/>
-      <c r="C42" s="50"/>
-      <c r="D42" s="50"/>
-      <c r="E42" s="50"/>
-      <c r="F42" s="50"/>
-      <c r="G42" s="50"/>
-      <c r="H42" s="51"/>
+      <c r="B42" s="9">
+        <v>45345</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D42" s="31"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G42" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="H42" s="26"/>
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
@@ -3171,23 +3116,25 @@
       <c r="AA42" s="1"/>
       <c r="AB42" s="1"/>
     </row>
-    <row r="43" spans="1:28" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:28" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="17" t="s">
-        <v>46</v>
+        <v>69</v>
       </c>
-      <c r="B43" s="14">
+      <c r="B43" s="9">
         <v>45345</v>
       </c>
-      <c r="C43" s="12"/>
-      <c r="D43" s="10" t="s">
+      <c r="C43" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E43" s="10"/>
-      <c r="F43" s="6"/>
+      <c r="D43" s="31"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="G43" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="H43" s="18"/>
+      <c r="H43" s="26"/>
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
@@ -3210,22 +3157,16 @@
       <c r="AB43" s="1"/>
     </row>
     <row r="44" spans="1:28" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="17" t="s">
-        <v>51</v>
+      <c r="A44" s="64" t="s">
+        <v>31</v>
       </c>
-      <c r="B44" s="9">
-        <v>45345</v>
-      </c>
-      <c r="C44" s="12"/>
-      <c r="D44" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="E44" s="10"/>
-      <c r="F44" s="6"/>
-      <c r="G44" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="H44" s="19"/>
+      <c r="B44" s="65"/>
+      <c r="C44" s="65"/>
+      <c r="D44" s="65"/>
+      <c r="E44" s="65"/>
+      <c r="F44" s="65"/>
+      <c r="G44" s="65"/>
+      <c r="H44" s="66"/>
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
@@ -3248,22 +3189,16 @@
       <c r="AB44" s="1"/>
     </row>
     <row r="45" spans="1:28" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="17" t="s">
-        <v>48</v>
+      <c r="A45" s="56" t="s">
+        <v>32</v>
       </c>
-      <c r="B45" s="9">
-        <v>45345</v>
-      </c>
-      <c r="C45" s="12"/>
-      <c r="D45" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="E45" s="10"/>
-      <c r="F45" s="6"/>
-      <c r="G45" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="H45" s="19"/>
+      <c r="B45" s="57"/>
+      <c r="C45" s="57"/>
+      <c r="D45" s="57"/>
+      <c r="E45" s="57"/>
+      <c r="F45" s="57"/>
+      <c r="G45" s="57"/>
+      <c r="H45" s="58"/>
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
@@ -3286,22 +3221,24 @@
       <c r="AB45" s="1"/>
     </row>
     <row r="46" spans="1:28" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="17" t="s">
-        <v>30</v>
+      <c r="A46" s="20" t="s">
+        <v>52</v>
       </c>
       <c r="B46" s="9">
-        <v>45345</v>
+        <v>44967</v>
       </c>
       <c r="C46" s="12"/>
-      <c r="D46" s="10" t="s">
+      <c r="D46" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="E46" s="10"/>
-      <c r="F46" s="6"/>
-      <c r="G46" s="10" t="s">
+      <c r="E46" s="12"/>
+      <c r="F46" s="12"/>
+      <c r="G46" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="H46" s="19"/>
+      <c r="H46" s="24" t="s">
+        <v>23</v>
+      </c>
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
@@ -3324,22 +3261,26 @@
       <c r="AB46" s="1"/>
     </row>
     <row r="47" spans="1:28" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="17" t="s">
-        <v>47</v>
+      <c r="A47" s="27" t="s">
+        <v>33</v>
       </c>
       <c r="B47" s="9">
-        <v>45345</v>
+        <v>44967</v>
       </c>
       <c r="C47" s="12"/>
-      <c r="D47" s="31" t="s">
+      <c r="D47" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="E47" s="10"/>
-      <c r="F47" s="6"/>
-      <c r="G47" s="31" t="s">
+      <c r="E47" s="12"/>
+      <c r="F47" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="H47" s="19"/>
+      <c r="G47" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H47" s="24" t="s">
+        <v>23</v>
+      </c>
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
@@ -3362,22 +3303,22 @@
       <c r="AB47" s="1"/>
     </row>
     <row r="48" spans="1:28" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="17" t="s">
-        <v>49</v>
+      <c r="A48" s="27" t="s">
+        <v>53</v>
       </c>
       <c r="B48" s="9">
-        <v>45345</v>
+        <v>44967</v>
       </c>
       <c r="C48" s="12"/>
-      <c r="D48" s="31" t="s">
+      <c r="D48" s="12"/>
+      <c r="E48" s="12"/>
+      <c r="F48" s="12"/>
+      <c r="G48" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E48" s="10"/>
-      <c r="F48" s="6"/>
-      <c r="G48" s="31" t="s">
+      <c r="H48" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="H48" s="19"/>
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
@@ -3400,24 +3341,24 @@
       <c r="AB48" s="1"/>
     </row>
     <row r="49" spans="1:28" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="17" t="s">
-        <v>72</v>
+      <c r="A49" s="27" t="s">
+        <v>34</v>
       </c>
       <c r="B49" s="9">
-        <v>45345</v>
+        <v>44967</v>
       </c>
-      <c r="C49" s="6" t="s">
+      <c r="C49" s="12"/>
+      <c r="D49" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D49" s="31" t="s">
+      <c r="E49" s="12"/>
+      <c r="F49" s="12"/>
+      <c r="G49" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="E49" s="10"/>
-      <c r="F49" s="12"/>
-      <c r="G49" s="31" t="s">
+      <c r="H49" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="H49" s="19"/>
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
@@ -3440,24 +3381,24 @@
       <c r="AB49" s="1"/>
     </row>
     <row r="50" spans="1:28" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="17" t="s">
-        <v>61</v>
+      <c r="A50" s="27" t="s">
+        <v>54</v>
       </c>
       <c r="B50" s="9">
-        <v>45345</v>
+        <v>44967</v>
       </c>
-      <c r="C50" s="6" t="s">
+      <c r="C50" s="12"/>
+      <c r="D50" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D50" s="31"/>
-      <c r="E50" s="7"/>
-      <c r="F50" s="6" t="s">
+      <c r="E50" s="12"/>
+      <c r="F50" s="12"/>
+      <c r="G50" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="G50" s="31" t="s">
+      <c r="H50" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="H50" s="26"/>
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
@@ -3479,25 +3420,21 @@
       <c r="AA50" s="1"/>
       <c r="AB50" s="1"/>
     </row>
-    <row r="51" spans="1:28" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="17" t="s">
-        <v>73</v>
+    <row r="51" spans="1:28" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="20" t="s">
+        <v>60</v>
       </c>
       <c r="B51" s="9">
-        <v>45345</v>
+        <v>44967</v>
       </c>
-      <c r="C51" s="6" t="s">
+      <c r="C51" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D51" s="31"/>
-      <c r="E51" s="7"/>
-      <c r="F51" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G51" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="H51" s="26"/>
+      <c r="D51" s="12"/>
+      <c r="E51" s="12"/>
+      <c r="F51" s="12"/>
+      <c r="G51" s="12"/>
+      <c r="H51" s="18"/>
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
@@ -3520,16 +3457,16 @@
       <c r="AB51" s="1"/>
     </row>
     <row r="52" spans="1:28" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="57" t="s">
-        <v>31</v>
+      <c r="A52" s="56" t="s">
+        <v>35</v>
       </c>
-      <c r="B52" s="58"/>
-      <c r="C52" s="58"/>
-      <c r="D52" s="58"/>
-      <c r="E52" s="58"/>
-      <c r="F52" s="58"/>
-      <c r="G52" s="58"/>
-      <c r="H52" s="59"/>
+      <c r="B52" s="57"/>
+      <c r="C52" s="57"/>
+      <c r="D52" s="57"/>
+      <c r="E52" s="57"/>
+      <c r="F52" s="57"/>
+      <c r="G52" s="57"/>
+      <c r="H52" s="58"/>
       <c r="I52" s="1"/>
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
@@ -3544,16 +3481,22 @@
       <c r="T52" s="1"/>
     </row>
     <row r="53" spans="1:28" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="49" t="s">
-        <v>32</v>
+      <c r="A53" s="27" t="s">
+        <v>36</v>
       </c>
-      <c r="B53" s="50"/>
-      <c r="C53" s="50"/>
-      <c r="D53" s="50"/>
-      <c r="E53" s="50"/>
-      <c r="F53" s="50"/>
-      <c r="G53" s="50"/>
-      <c r="H53" s="51"/>
+      <c r="B53" s="9">
+        <v>45204</v>
+      </c>
+      <c r="C53" s="12"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="F53" s="12"/>
+      <c r="G53" s="12"/>
+      <c r="H53" s="21" t="s">
+        <v>23</v>
+      </c>
       <c r="I53" s="1"/>
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
@@ -3568,22 +3511,20 @@
       <c r="T53" s="1"/>
     </row>
     <row r="54" spans="1:28" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="20" t="s">
-        <v>52</v>
+      <c r="A54" s="27" t="s">
+        <v>67</v>
       </c>
       <c r="B54" s="9">
-        <v>44967</v>
+        <v>45204</v>
       </c>
       <c r="C54" s="12"/>
-      <c r="D54" s="13" t="s">
+      <c r="D54" s="6"/>
+      <c r="E54" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="E54" s="12"/>
       <c r="F54" s="12"/>
-      <c r="G54" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="H54" s="24" t="s">
+      <c r="G54" s="12"/>
+      <c r="H54" s="21" t="s">
         <v>23</v>
       </c>
       <c r="I54" s="1"/>
@@ -3608,24 +3549,20 @@
       <c r="AB54" s="1"/>
     </row>
     <row r="55" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="27" t="s">
-        <v>33</v>
+      <c r="A55" s="20" t="s">
+        <v>37</v>
       </c>
       <c r="B55" s="9">
-        <v>44967</v>
+        <v>45204</v>
       </c>
       <c r="C55" s="12"/>
-      <c r="D55" s="12" t="s">
+      <c r="D55" s="12"/>
+      <c r="E55" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="E55" s="12"/>
-      <c r="F55" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G55" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="H55" s="24" t="s">
+      <c r="F55" s="12"/>
+      <c r="G55" s="12"/>
+      <c r="H55" s="21" t="s">
         <v>23</v>
       </c>
       <c r="I55" s="1"/>
@@ -3651,19 +3588,19 @@
     </row>
     <row r="56" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="27" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B56" s="9">
-        <v>44967</v>
+        <v>45204</v>
       </c>
       <c r="C56" s="12"/>
       <c r="D56" s="12"/>
-      <c r="E56" s="12"/>
-      <c r="F56" s="12"/>
-      <c r="G56" s="6" t="s">
+      <c r="E56" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="H56" s="24" t="s">
+      <c r="F56" s="12"/>
+      <c r="G56" s="12"/>
+      <c r="H56" s="21" t="s">
         <v>23</v>
       </c>
       <c r="I56" s="1"/>
@@ -3689,23 +3626,21 @@
     </row>
     <row r="57" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="27" t="s">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="B57" s="9">
-        <v>44967</v>
+        <v>45204</v>
       </c>
-      <c r="C57" s="12"/>
-      <c r="D57" s="12" t="s">
+      <c r="C57" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="E57" s="12"/>
-      <c r="F57" s="12"/>
-      <c r="G57" s="12" t="s">
+      <c r="D57" s="12"/>
+      <c r="E57" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="H57" s="24" t="s">
-        <v>23</v>
-      </c>
+      <c r="F57" s="12"/>
+      <c r="G57" s="12"/>
+      <c r="H57" s="21"/>
       <c r="I57" s="1"/>
       <c r="J57" s="1"/>
       <c r="K57" s="1"/>
@@ -3727,23 +3662,23 @@
       <c r="AA57" s="1"/>
       <c r="AB57" s="1"/>
     </row>
-    <row r="58" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="27" t="s">
-        <v>54</v>
+    <row r="58" spans="1:28" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="37" t="s">
+        <v>55</v>
       </c>
-      <c r="B58" s="9">
-        <v>44967</v>
+      <c r="B58" s="38">
+        <v>45204</v>
       </c>
-      <c r="C58" s="12"/>
-      <c r="D58" s="12" t="s">
+      <c r="C58" s="29"/>
+      <c r="D58" s="29"/>
+      <c r="E58" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="E58" s="12"/>
-      <c r="F58" s="12"/>
-      <c r="G58" s="12" t="s">
+      <c r="F58" s="29"/>
+      <c r="G58" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="H58" s="24" t="s">
+      <c r="H58" s="40" t="s">
         <v>23</v>
       </c>
       <c r="I58" s="1"/>
@@ -3768,20 +3703,14 @@
       <c r="AB58" s="1"/>
     </row>
     <row r="59" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="B59" s="9">
-        <v>44967</v>
-      </c>
-      <c r="C59" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D59" s="12"/>
-      <c r="E59" s="12"/>
-      <c r="F59" s="12"/>
-      <c r="G59" s="12"/>
-      <c r="H59" s="18"/>
+      <c r="A59" s="1"/>
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1"/>
       <c r="I59" s="1"/>
       <c r="J59" s="1"/>
       <c r="K59" s="1"/>
@@ -3804,16 +3733,14 @@
       <c r="AB59" s="1"/>
     </row>
     <row r="60" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="49" t="s">
-        <v>35</v>
-      </c>
-      <c r="B60" s="50"/>
-      <c r="C60" s="50"/>
-      <c r="D60" s="50"/>
-      <c r="E60" s="50"/>
-      <c r="F60" s="50"/>
-      <c r="G60" s="50"/>
-      <c r="H60" s="51"/>
+      <c r="A60" s="2"/>
+      <c r="B60" s="2"/>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="2"/>
+      <c r="F60" s="2"/>
+      <c r="G60" s="2"/>
+      <c r="H60" s="2"/>
       <c r="I60" s="1"/>
       <c r="J60" s="1"/>
       <c r="K60" s="1"/>
@@ -3836,22 +3763,14 @@
       <c r="AB60" s="1"/>
     </row>
     <row r="61" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="B61" s="9">
-        <v>45204</v>
-      </c>
-      <c r="C61" s="12"/>
-      <c r="D61" s="6"/>
-      <c r="E61" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="F61" s="12"/>
-      <c r="G61" s="12"/>
-      <c r="H61" s="21" t="s">
-        <v>23</v>
-      </c>
+      <c r="A61" s="2"/>
+      <c r="B61" s="2"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
+      <c r="G61" s="2"/>
+      <c r="H61" s="2"/>
       <c r="I61" s="1"/>
       <c r="J61" s="1"/>
       <c r="K61" s="1"/>
@@ -3874,22 +3793,14 @@
       <c r="AB61" s="1"/>
     </row>
     <row r="62" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="27" t="s">
-        <v>71</v>
-      </c>
-      <c r="B62" s="9">
-        <v>45204</v>
-      </c>
-      <c r="C62" s="12"/>
-      <c r="D62" s="6"/>
-      <c r="E62" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="F62" s="12"/>
-      <c r="G62" s="12"/>
-      <c r="H62" s="21" t="s">
-        <v>23</v>
-      </c>
+      <c r="A62" s="2"/>
+      <c r="B62" s="2"/>
+      <c r="C62" s="2"/>
+      <c r="D62" s="2"/>
+      <c r="E62" s="2"/>
+      <c r="F62" s="2"/>
+      <c r="G62" s="2"/>
+      <c r="H62" s="2"/>
       <c r="I62" s="8"/>
       <c r="J62" s="1"/>
       <c r="K62" s="1"/>
@@ -3912,22 +3823,14 @@
       <c r="AB62" s="1"/>
     </row>
     <row r="63" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="B63" s="9">
-        <v>45204</v>
-      </c>
-      <c r="C63" s="12"/>
-      <c r="D63" s="12"/>
-      <c r="E63" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="F63" s="12"/>
-      <c r="G63" s="12"/>
-      <c r="H63" s="21" t="s">
-        <v>23</v>
-      </c>
+      <c r="A63" s="2"/>
+      <c r="B63" s="2"/>
+      <c r="C63" s="2"/>
+      <c r="D63" s="2"/>
+      <c r="E63" s="2"/>
+      <c r="F63" s="2"/>
+      <c r="G63" s="2"/>
+      <c r="H63" s="2"/>
       <c r="I63" s="8"/>
       <c r="J63" s="8"/>
       <c r="K63" s="8"/>
@@ -3950,22 +3853,14 @@
       <c r="AB63" s="1"/>
     </row>
     <row r="64" spans="1:28" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="B64" s="9">
-        <v>45204</v>
-      </c>
-      <c r="C64" s="12"/>
-      <c r="D64" s="12"/>
-      <c r="E64" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="F64" s="12"/>
-      <c r="G64" s="12"/>
-      <c r="H64" s="21" t="s">
-        <v>23</v>
-      </c>
+      <c r="A64" s="2"/>
+      <c r="B64" s="2"/>
+      <c r="C64" s="2"/>
+      <c r="D64" s="2"/>
+      <c r="E64" s="2"/>
+      <c r="F64" s="2"/>
+      <c r="G64" s="2"/>
+      <c r="H64" s="2"/>
       <c r="I64" s="1"/>
       <c r="J64" s="8"/>
       <c r="K64" s="8"/>
@@ -3988,24 +3883,14 @@
       <c r="AB64" s="1"/>
     </row>
     <row r="65" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="27" t="s">
-        <v>60</v>
-      </c>
-      <c r="B65" s="9">
-        <v>45204</v>
-      </c>
-      <c r="C65" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D65" s="12"/>
-      <c r="E65" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="F65" s="12"/>
-      <c r="G65" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="H65" s="21"/>
+      <c r="A65" s="2"/>
+      <c r="B65" s="2"/>
+      <c r="C65" s="2"/>
+      <c r="D65" s="2"/>
+      <c r="E65" s="2"/>
+      <c r="F65" s="2"/>
+      <c r="G65" s="2"/>
+      <c r="H65" s="2"/>
       <c r="I65" s="1"/>
       <c r="J65" s="1"/>
       <c r="K65" s="1"/>
@@ -4027,25 +3912,15 @@
       <c r="AA65" s="1"/>
       <c r="AB65" s="1"/>
     </row>
-    <row r="66" spans="1:28" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="37" t="s">
-        <v>55</v>
-      </c>
-      <c r="B66" s="38">
-        <v>45204</v>
-      </c>
-      <c r="C66" s="29"/>
-      <c r="D66" s="29"/>
-      <c r="E66" s="39" t="s">
-        <v>23</v>
-      </c>
-      <c r="F66" s="29"/>
-      <c r="G66" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="H66" s="40" t="s">
-        <v>23</v>
-      </c>
+    <row r="66" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="2"/>
+      <c r="B66" s="2"/>
+      <c r="C66" s="2"/>
+      <c r="D66" s="2"/>
+      <c r="E66" s="2"/>
+      <c r="F66" s="2"/>
+      <c r="G66" s="2"/>
+      <c r="H66" s="2"/>
       <c r="I66" s="1"/>
       <c r="J66" s="1"/>
       <c r="K66" s="1"/>
@@ -4068,14 +3943,14 @@
       <c r="AB66" s="1"/>
     </row>
     <row r="67" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="1"/>
-      <c r="B67" s="1"/>
-      <c r="C67" s="1"/>
-      <c r="D67" s="1"/>
-      <c r="E67" s="1"/>
-      <c r="F67" s="1"/>
-      <c r="G67" s="1"/>
-      <c r="H67" s="1"/>
+      <c r="A67" s="2"/>
+      <c r="B67" s="2"/>
+      <c r="C67" s="2"/>
+      <c r="D67" s="2"/>
+      <c r="E67" s="2"/>
+      <c r="F67" s="2"/>
+      <c r="G67" s="2"/>
+      <c r="H67" s="2"/>
       <c r="I67" s="1"/>
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
@@ -31407,14 +31282,6 @@
       <c r="AB985" s="1"/>
     </row>
     <row r="986" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A986" s="2"/>
-      <c r="B986" s="2"/>
-      <c r="C986" s="2"/>
-      <c r="D986" s="2"/>
-      <c r="E986" s="2"/>
-      <c r="F986" s="2"/>
-      <c r="G986" s="2"/>
-      <c r="H986" s="2"/>
       <c r="I986" s="1"/>
       <c r="J986" s="1"/>
       <c r="K986" s="1"/>
@@ -31437,14 +31304,6 @@
       <c r="AB986" s="1"/>
     </row>
     <row r="987" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A987" s="2"/>
-      <c r="B987" s="2"/>
-      <c r="C987" s="2"/>
-      <c r="D987" s="2"/>
-      <c r="E987" s="2"/>
-      <c r="F987" s="2"/>
-      <c r="G987" s="2"/>
-      <c r="H987" s="2"/>
       <c r="I987" s="1"/>
       <c r="J987" s="1"/>
       <c r="K987" s="1"/>
@@ -31467,14 +31326,6 @@
       <c r="AB987" s="1"/>
     </row>
     <row r="988" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A988" s="2"/>
-      <c r="B988" s="2"/>
-      <c r="C988" s="2"/>
-      <c r="D988" s="2"/>
-      <c r="E988" s="2"/>
-      <c r="F988" s="2"/>
-      <c r="G988" s="2"/>
-      <c r="H988" s="2"/>
       <c r="I988" s="1"/>
       <c r="J988" s="1"/>
       <c r="K988" s="1"/>
@@ -31497,14 +31348,6 @@
       <c r="AB988" s="1"/>
     </row>
     <row r="989" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A989" s="2"/>
-      <c r="B989" s="2"/>
-      <c r="C989" s="2"/>
-      <c r="D989" s="2"/>
-      <c r="E989" s="2"/>
-      <c r="F989" s="2"/>
-      <c r="G989" s="2"/>
-      <c r="H989" s="2"/>
       <c r="I989" s="1"/>
       <c r="J989" s="1"/>
       <c r="K989" s="1"/>
@@ -31527,14 +31370,6 @@
       <c r="AB989" s="1"/>
     </row>
     <row r="990" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A990" s="2"/>
-      <c r="B990" s="2"/>
-      <c r="C990" s="2"/>
-      <c r="D990" s="2"/>
-      <c r="E990" s="2"/>
-      <c r="F990" s="2"/>
-      <c r="G990" s="2"/>
-      <c r="H990" s="2"/>
       <c r="I990" s="1"/>
       <c r="J990" s="1"/>
       <c r="K990" s="1"/>
@@ -31557,14 +31392,6 @@
       <c r="AB990" s="1"/>
     </row>
     <row r="991" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A991" s="2"/>
-      <c r="B991" s="2"/>
-      <c r="C991" s="2"/>
-      <c r="D991" s="2"/>
-      <c r="E991" s="2"/>
-      <c r="F991" s="2"/>
-      <c r="G991" s="2"/>
-      <c r="H991" s="2"/>
       <c r="I991" s="1"/>
       <c r="J991" s="1"/>
       <c r="K991" s="1"/>
@@ -31587,14 +31414,6 @@
       <c r="AB991" s="1"/>
     </row>
     <row r="992" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A992" s="2"/>
-      <c r="B992" s="2"/>
-      <c r="C992" s="2"/>
-      <c r="D992" s="2"/>
-      <c r="E992" s="2"/>
-      <c r="F992" s="2"/>
-      <c r="G992" s="2"/>
-      <c r="H992" s="2"/>
       <c r="I992" s="1"/>
       <c r="J992" s="1"/>
       <c r="K992" s="1"/>
@@ -31616,15 +31435,7 @@
       <c r="AA992" s="1"/>
       <c r="AB992" s="1"/>
     </row>
-    <row r="993" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A993" s="2"/>
-      <c r="B993" s="2"/>
-      <c r="C993" s="2"/>
-      <c r="D993" s="2"/>
-      <c r="E993" s="2"/>
-      <c r="F993" s="2"/>
-      <c r="G993" s="2"/>
-      <c r="H993" s="2"/>
+    <row r="993" spans="9:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I993" s="1"/>
       <c r="J993" s="1"/>
       <c r="K993" s="1"/>
@@ -31646,7 +31457,7 @@
       <c r="AA993" s="1"/>
       <c r="AB993" s="1"/>
     </row>
-    <row r="994" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="994" spans="9:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I994" s="1"/>
       <c r="J994" s="1"/>
       <c r="K994" s="1"/>
@@ -31668,7 +31479,7 @@
       <c r="AA994" s="1"/>
       <c r="AB994" s="1"/>
     </row>
-    <row r="995" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="995" spans="9:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I995" s="1"/>
       <c r="J995" s="1"/>
       <c r="K995" s="1"/>
@@ -31690,7 +31501,7 @@
       <c r="AA995" s="1"/>
       <c r="AB995" s="1"/>
     </row>
-    <row r="996" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="996" spans="9:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I996" s="1"/>
       <c r="J996" s="1"/>
       <c r="K996" s="1"/>
@@ -31712,7 +31523,7 @@
       <c r="AA996" s="1"/>
       <c r="AB996" s="1"/>
     </row>
-    <row r="997" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="997" spans="9:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I997" s="1"/>
       <c r="J997" s="1"/>
       <c r="K997" s="1"/>
@@ -31734,7 +31545,7 @@
       <c r="AA997" s="1"/>
       <c r="AB997" s="1"/>
     </row>
-    <row r="998" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="998" spans="9:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I998" s="1"/>
       <c r="J998" s="1"/>
       <c r="K998" s="1"/>
@@ -31756,7 +31567,7 @@
       <c r="AA998" s="1"/>
       <c r="AB998" s="1"/>
     </row>
-    <row r="999" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="999" spans="9:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I999" s="1"/>
       <c r="J999" s="1"/>
       <c r="K999" s="1"/>
@@ -31778,7 +31589,7 @@
       <c r="AA999" s="1"/>
       <c r="AB999" s="1"/>
     </row>
-    <row r="1000" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1000" spans="9:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I1000" s="1"/>
       <c r="J1000" s="1"/>
       <c r="K1000" s="1"/>
@@ -31800,7 +31611,7 @@
       <c r="AA1000" s="1"/>
       <c r="AB1000" s="1"/>
     </row>
-    <row r="1001" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1001" spans="9:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I1001" s="1"/>
       <c r="J1001" s="1"/>
       <c r="K1001" s="1"/>
@@ -31822,7 +31633,7 @@
       <c r="AA1001" s="1"/>
       <c r="AB1001" s="1"/>
     </row>
-    <row r="1002" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1002" spans="9:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I1002" s="1"/>
       <c r="J1002" s="1"/>
       <c r="K1002" s="1"/>
@@ -31844,7 +31655,7 @@
       <c r="AA1002" s="1"/>
       <c r="AB1002" s="1"/>
     </row>
-    <row r="1003" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1003" spans="9:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I1003" s="1"/>
       <c r="J1003" s="1"/>
       <c r="K1003" s="1"/>
@@ -31866,7 +31677,7 @@
       <c r="AA1003" s="1"/>
       <c r="AB1003" s="1"/>
     </row>
-    <row r="1004" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1004" spans="9:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I1004" s="1"/>
       <c r="J1004" s="1"/>
       <c r="K1004" s="1"/>
@@ -31888,7 +31699,7 @@
       <c r="AA1004" s="1"/>
       <c r="AB1004" s="1"/>
     </row>
-    <row r="1005" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1005" spans="9:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I1005" s="1"/>
       <c r="J1005" s="1"/>
       <c r="K1005" s="1"/>
@@ -31910,7 +31721,7 @@
       <c r="AA1005" s="1"/>
       <c r="AB1005" s="1"/>
     </row>
-    <row r="1006" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1006" spans="9:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I1006" s="1"/>
       <c r="J1006" s="1"/>
       <c r="K1006" s="1"/>
@@ -31932,7 +31743,7 @@
       <c r="AA1006" s="1"/>
       <c r="AB1006" s="1"/>
     </row>
-    <row r="1007" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1007" spans="9:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I1007" s="1"/>
       <c r="J1007" s="1"/>
       <c r="K1007" s="1"/>
@@ -31954,7 +31765,7 @@
       <c r="AA1007" s="1"/>
       <c r="AB1007" s="1"/>
     </row>
-    <row r="1008" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1008" spans="9:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I1008" s="1"/>
       <c r="J1008" s="1"/>
       <c r="K1008" s="1"/>
@@ -32064,32 +31875,30 @@
       <c r="AB1012" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="21">
+  <mergeCells count="19">
+    <mergeCell ref="A52:H52"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A5:H5"/>
+    <mergeCell ref="A23:H23"/>
+    <mergeCell ref="A24:H24"/>
+    <mergeCell ref="A33:H33"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="A8:H8"/>
+    <mergeCell ref="A18:H18"/>
+    <mergeCell ref="A9:H9"/>
+    <mergeCell ref="A34:H34"/>
+    <mergeCell ref="A44:H44"/>
+    <mergeCell ref="A45:H45"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A3:E3"/>
     <mergeCell ref="F3:H3"/>
-    <mergeCell ref="A60:H60"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="A5:H5"/>
-    <mergeCell ref="A31:H31"/>
-    <mergeCell ref="A32:H32"/>
-    <mergeCell ref="A41:H41"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="A8:H8"/>
-    <mergeCell ref="A26:H26"/>
-    <mergeCell ref="A17:H17"/>
-    <mergeCell ref="A9:H9"/>
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="A42:H42"/>
-    <mergeCell ref="A52:H52"/>
-    <mergeCell ref="A53:H53"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A5" r:id="rId1" display="Adresse URL du portfolio : https://baptisteaudeon.com/" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="A22" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="A14" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0" footer="0"/>
